--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +39,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This formula matches the categories in column C with their locations in the 'Income' tab, then displays the resulting row number. The formula in column D uses it to calculate the values in columns D:Q. </t>
         </r>
@@ -53,7 +52,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This formula matches the categories in column C with their locations in the 'Expenses' tab, then displays the resulting row number. The formula in column D uses it to calculate the values in columns D:Q. </t>
         </r>
@@ -67,7 +65,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Total of Income - Expenses</t>
         </r>
@@ -81,7 +78,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">This total includes the 'Starting Balance' from the 'Setup' tab.</t>
         </r>
@@ -337,19 +333,19 @@
     <t xml:space="preserve">Transportation</t>
   </si>
   <si>
+    <t xml:space="preserve">Public Transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration/license</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration/license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public transit</t>
   </si>
   <si>
     <t xml:space="preserve">Travel</t>
@@ -449,15 +445,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$£-809]#,##0"/>
     <numFmt numFmtId="167" formatCode="\$#,##0"/>
     <numFmt numFmtId="168" formatCode="mmm"/>
-    <numFmt numFmtId="169" formatCode="mmm\ "/>
-    <numFmt numFmtId="170" formatCode="mmm&quot; '&quot;yy"/>
-    <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="[$R-1C09]\ #,##0.00;[RED][$R-1C09]\-#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="mmm\ "/>
+    <numFmt numFmtId="171" formatCode="mmm&quot; '&quot;yy"/>
+    <numFmt numFmtId="172" formatCode="General"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -465,7 +462,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -488,13 +484,11 @@
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -502,7 +496,6 @@
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -510,7 +503,6 @@
       <color rgb="FFF46524"/>
       <name val="Raleway"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -518,14 +510,12 @@
       <color rgb="FFF46524"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFF3800"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -533,14 +523,12 @@
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -548,7 +536,6 @@
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -556,14 +543,12 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -572,14 +557,12 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -588,7 +571,6 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -596,7 +578,6 @@
       <color rgb="FFF46524"/>
       <name val="Raleway"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -604,7 +585,6 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -613,7 +593,6 @@
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -622,7 +601,6 @@
       <color rgb="FF556376"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -631,14 +609,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -646,21 +622,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFD9D9D9"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF576475"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -668,7 +641,6 @@
       <color rgb="FF6C7687"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -676,7 +648,6 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -684,48 +655,41 @@
       <color rgb="FFA7B0BF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FFB7B7B7"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="11"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -733,7 +697,6 @@
       <color rgb="FF222222"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -741,20 +704,17 @@
       <color rgb="FF222222"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -762,7 +722,6 @@
       <color rgb="FFF46524"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -770,7 +729,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -779,7 +737,6 @@
       <color rgb="FFB7B7B7"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -787,7 +744,6 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -796,7 +752,6 @@
       <color rgb="FF666666"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -804,14 +759,12 @@
       <color rgb="FF6C7687"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -819,14 +772,12 @@
       <color rgb="FF222222"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -834,7 +785,6 @@
       <color rgb="FF6C7687"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -842,7 +792,6 @@
       <color rgb="FF334960"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1168,7 +1117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1333,11 +1282,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1357,6 +1306,34 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1365,62 +1342,46 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,11 +1534,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="44" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="44" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1685,7 +1646,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1693,7 +1654,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1729,7 +1690,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1761,7 +1722,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1821,6 +1782,8 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="Arial"/>
+        <family val="0"/>
         <color rgb="FFF46524"/>
       </font>
       <fill>
@@ -1893,7 +1856,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1902,12 +1865,13 @@
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0533807829181495"/>
-          <c:y val="0.191262986606584"/>
-          <c:w val="0.908920924060559"/>
-          <c:h val="0.674427337589185"/>
+          <c:x val="0.0763340367802231"/>
+          <c:y val="0.221234506072368"/>
+          <c:w val="0.877901718420259"/>
+          <c:h val="0.572304995617879"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -2014,8 +1978,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2428693"/>
-        <c:axId val="66453988"/>
+        <c:axId val="60765825"/>
+        <c:axId val="78259356"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2308,11 +2272,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33671128"/>
-        <c:axId val="33297760"/>
+        <c:axId val="44665919"/>
+        <c:axId val="55744116"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2428693"/>
+        <c:axId val="60765825"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,14 +2308,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66453988"/>
+        <c:crossAx val="78259356"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66453988"/>
+        <c:axId val="78259356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,11 +2357,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2428693"/>
+        <c:crossAx val="60765825"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33671128"/>
+        <c:axId val="44665919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2390,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33297760"/>
+        <c:crossAx val="55744116"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33297760"/>
+        <c:axId val="55744116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2464,7 +2428,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33671128"/>
+        <c:crossAx val="44665919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,7 +2482,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2527,18 +2491,19 @@
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0479549496147007"/>
-          <c:y val="0.165746442981525"/>
-          <c:w val="0.931564908120925"/>
-          <c:h val="0.716181779571034"/>
+          <c:x val="0.0705143398909694"/>
+          <c:y val="0.165675446049278"/>
+          <c:w val="0.908953543493719"/>
+          <c:h val="0.419923534409516"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2555,6 +2520,7 @@
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2566,6 +2532,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
@@ -2577,6 +2544,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
@@ -2588,6 +2556,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
@@ -2599,6 +2568,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
@@ -2610,6 +2580,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="83caff"/>
@@ -2621,6 +2592,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="314004"/>
@@ -2632,6 +2604,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
@@ -2643,6 +2616,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4b1f6f"/>
@@ -2654,6 +2628,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
@@ -2665,6 +2640,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="c5000b"/>
@@ -2676,6 +2652,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0084d1"/>
@@ -2687,6 +2664,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2698,6 +2676,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
@@ -2709,6 +2688,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
@@ -3212,11 +3192,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="16787268"/>
-        <c:axId val="5937732"/>
+        <c:axId val="71089125"/>
+        <c:axId val="98738501"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16787268"/>
+        <c:axId val="71089125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,7 +3225,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5937732"/>
+        <c:crossAx val="98738501"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3253,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5937732"/>
+        <c:axId val="98738501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3293,7 +3273,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16787268"/>
+        <c:crossAx val="71089125"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3330,11 +3310,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>380880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
@@ -3344,8 +3324,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="380880" y="1733400"/>
-        <a:ext cx="11936520" cy="2875680"/>
+        <a:off x="380880" y="1734120"/>
+        <a:ext cx="11940840" cy="2874960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3364,9 +3344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3375,7 +3355,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="409680" y="13239720"/>
-        <a:ext cx="12146040" cy="3390120"/>
+        <a:ext cx="12150360" cy="3389400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3399,7 +3379,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
@@ -3583,13 +3563,13 @@
   </sheetPr>
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.31"/>
@@ -4985,20 +4965,34 @@
       <c r="H45" s="47" t="n">
         <v>600</v>
       </c>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
+      <c r="I45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P45" s="48" t="n">
         <f aca="false">SUM(D45:O45)</f>
         <v>600</v>
       </c>
       <c r="Q45" s="48" t="n">
         <f aca="false">IFERROR(AVERAGE(D45:O45),0)</f>
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="R45" s="49"/>
     </row>
@@ -5012,14 +5006,30 @@
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
+      <c r="H46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P46" s="48" t="n">
         <f aca="false">SUM(D46:O46)</f>
         <v>0</v>
@@ -5040,14 +5050,30 @@
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
+      <c r="H47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P47" s="48" t="n">
         <f aca="false">SUM(D47:O47)</f>
         <v>0</v>
@@ -5068,14 +5094,30 @@
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
+      <c r="H48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P48" s="48" t="n">
         <f aca="false">SUM(D48:O48)</f>
         <v>0</v>
@@ -5096,14 +5138,30 @@
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
+      <c r="H49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P49" s="48" t="n">
         <f aca="false">SUM(D49:O49)</f>
         <v>0</v>
@@ -5124,14 +5182,30 @@
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
+      <c r="H50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P50" s="48" t="n">
         <f aca="false">SUM(D50:O50)</f>
         <v>0</v>
@@ -5152,14 +5226,30 @@
       <c r="E51" s="47"/>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
+      <c r="H51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P51" s="48" t="n">
         <f aca="false">SUM(D51:O51)</f>
         <v>0</v>
@@ -5180,14 +5270,30 @@
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
+      <c r="H52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P52" s="48" t="n">
         <f aca="false">SUM(D52:O52)</f>
         <v>0</v>
@@ -7776,41 +7882,41 @@
       <c r="A137" s="44"/>
       <c r="B137" s="45"/>
       <c r="C137" s="46"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-      <c r="N137" s="47"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="48"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="54"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
+      <c r="P137" s="55"/>
+      <c r="Q137" s="55"/>
       <c r="R137" s="49"/>
     </row>
     <row r="138" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="54"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
-      <c r="J138" s="57"/>
-      <c r="K138" s="57"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="57"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="57"/>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58"/>
-      <c r="R138" s="59"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="59"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="59"/>
+      <c r="L138" s="59"/>
+      <c r="M138" s="59"/>
+      <c r="N138" s="59"/>
+      <c r="O138" s="59"/>
+      <c r="P138" s="60"/>
+      <c r="Q138" s="60"/>
+      <c r="R138" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7830,21 +7936,22 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="4" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="5" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="4" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="9" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.12"/>
   </cols>
   <sheetData>
@@ -7944,7 +8051,7 @@
       </c>
       <c r="H3" s="41" t="n">
         <f aca="false">SUM(H4:H10)</f>
-        <v>12321</v>
+        <v>9631</v>
       </c>
       <c r="I3" s="41" t="n">
         <f aca="false">SUM(I4:I10)</f>
@@ -7976,7 +8083,7 @@
       </c>
       <c r="P3" s="42" t="n">
         <f aca="false">SUM(D3:O3)</f>
-        <v>12321</v>
+        <v>9631</v>
       </c>
       <c r="Q3" s="42" t="e">
         <f aca="false">IFERROR(AVERAGE(D3:O3))</f>
@@ -7997,20 +8104,34 @@
       <c r="H4" s="47" t="n">
         <v>9631</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="I4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P4" s="48" t="n">
         <f aca="false">SUM(D4:O4)</f>
         <v>9631</v>
       </c>
       <c r="Q4" s="48" t="n">
         <f aca="false">IFERROR(AVERAGE(D4:O4),0)</f>
-        <v>9631</v>
+        <v>1203.875</v>
       </c>
       <c r="R4" s="49"/>
     </row>
@@ -8025,22 +8146,36 @@
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="48" t="n">
         <f aca="false">SUM(D5:O5)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="48" t="n">
         <f aca="false">IFERROR(AVERAGE(D5:O5),0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R5" s="49"/>
     </row>
@@ -8055,22 +8190,36 @@
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47" t="n">
-        <v>1690</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P6" s="48" t="n">
         <f aca="false">SUM(D6:O6)</f>
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="48" t="n">
         <f aca="false">IFERROR(AVERAGE(D6:O6),0)</f>
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="R6" s="49"/>
     </row>
@@ -8087,13 +8236,27 @@
       <c r="H7" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="I7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P7" s="48" t="n">
         <f aca="false">SUM(D7:O7)</f>
         <v>0</v>
@@ -8117,13 +8280,27 @@
       <c r="H8" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="I8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="P8" s="48" t="n">
         <f aca="false">SUM(D8:O8)</f>
         <v>0</v>
@@ -8412,41 +8589,41 @@
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="59"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8470,7 +8647,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="5.86"/>
@@ -8480,2611 +8657,2611 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="66"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="69"/>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="73"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="80"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="79" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="77"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="80"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="89"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="77"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="77"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="77"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="80"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="77"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="77"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="80"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="77"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="80"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="77"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="77"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="80"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="77"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="80"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="80"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="77"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="80"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="77"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="80"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="77"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="80"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="77"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="80"/>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="94" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="96"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="99"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101" t="n">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104" t="n">
         <f aca="false">Expenses!D2</f>
         <v>42370</v>
       </c>
-      <c r="E22" s="101" t="n">
+      <c r="E22" s="104" t="n">
         <f aca="false">Expenses!E2</f>
         <v>42401</v>
       </c>
-      <c r="F22" s="101" t="n">
+      <c r="F22" s="104" t="n">
         <f aca="false">Expenses!F2</f>
         <v>42430</v>
       </c>
-      <c r="G22" s="101" t="n">
+      <c r="G22" s="104" t="n">
         <f aca="false">Expenses!G2</f>
         <v>42461</v>
       </c>
-      <c r="H22" s="101" t="n">
+      <c r="H22" s="104" t="n">
         <f aca="false">Expenses!H2</f>
         <v>42491</v>
       </c>
-      <c r="I22" s="101" t="n">
+      <c r="I22" s="104" t="n">
         <f aca="false">Expenses!I2</f>
         <v>42522</v>
       </c>
-      <c r="J22" s="101" t="n">
+      <c r="J22" s="104" t="n">
         <f aca="false">Expenses!J2</f>
         <v>42552</v>
       </c>
-      <c r="K22" s="101" t="n">
+      <c r="K22" s="104" t="n">
         <f aca="false">Expenses!K2</f>
         <v>42583</v>
       </c>
-      <c r="L22" s="101" t="n">
+      <c r="L22" s="104" t="n">
         <f aca="false">Expenses!L2</f>
         <v>42614</v>
       </c>
-      <c r="M22" s="101" t="n">
+      <c r="M22" s="104" t="n">
         <f aca="false">Expenses!M2</f>
         <v>42644</v>
       </c>
-      <c r="N22" s="101" t="n">
+      <c r="N22" s="104" t="n">
         <f aca="false">Expenses!N2</f>
         <v>42675</v>
       </c>
-      <c r="O22" s="101" t="n">
+      <c r="O22" s="104" t="n">
         <f aca="false">Expenses!O2</f>
         <v>42705</v>
       </c>
-      <c r="P22" s="102" t="s">
+      <c r="P22" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="102" t="s">
+      <c r="Q22" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="103"/>
+      <c r="R22" s="106"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="104" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="105" t="e">
+      <c r="D23" s="108" t="e">
         <f aca="false">SUM(D31:D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="105" t="n">
+      <c r="E23" s="108" t="n">
         <f aca="false">SUM(E31:E41)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="105" t="n">
+      <c r="F23" s="108" t="n">
         <f aca="false">SUM(F31:F41)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="105" t="n">
+      <c r="G23" s="108" t="n">
         <f aca="false">SUM(G31:G41)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="105" t="n">
+      <c r="H23" s="108" t="n">
         <f aca="false">SUM(H31:H41)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="105" t="n">
+      <c r="I23" s="108" t="n">
         <f aca="false">SUM(I31:I41)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="105" t="n">
+      <c r="J23" s="108" t="n">
         <f aca="false">SUM(J31:J41)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="105" t="n">
+      <c r="K23" s="108" t="n">
         <f aca="false">SUM(K31:K41)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="105" t="n">
+      <c r="L23" s="108" t="n">
         <f aca="false">SUM(L31:L41)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="105" t="n">
+      <c r="M23" s="108" t="n">
         <f aca="false">SUM(M31:M41)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="105" t="n">
+      <c r="N23" s="108" t="n">
         <f aca="false">SUM(N31:N41)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="105" t="n">
+      <c r="O23" s="108" t="n">
         <f aca="false">SUM(O31:O41)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="106" t="e">
+      <c r="P23" s="109" t="e">
         <f aca="false">SUM(D23:O23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q23" s="106" t="n">
+      <c r="Q23" s="109" t="n">
         <f aca="false">IFERROR(AVERAGEIF(D23:O23, "&gt;0", D23:O23), 0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="107"/>
+      <c r="R23" s="110"/>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="111" t="e">
+      <c r="D24" s="114" t="e">
         <f aca="false">SUM(D44:D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="111" t="n">
+      <c r="E24" s="114" t="n">
         <f aca="false">SUM(E44:E58)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="111" t="n">
+      <c r="F24" s="114" t="n">
         <f aca="false">SUM(F44:F58)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="111" t="n">
+      <c r="G24" s="114" t="n">
         <f aca="false">SUM(G44:G58)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="111" t="n">
+      <c r="H24" s="114" t="n">
         <f aca="false">SUM(H44:H58)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="111" t="n">
+      <c r="I24" s="114" t="n">
         <f aca="false">SUM(I44:I58)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="111" t="n">
+      <c r="J24" s="114" t="n">
         <f aca="false">SUM(J44:J58)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="111" t="n">
+      <c r="K24" s="114" t="n">
         <f aca="false">SUM(K44:K58)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="111" t="n">
+      <c r="L24" s="114" t="n">
         <f aca="false">SUM(L44:L58)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="111" t="n">
+      <c r="M24" s="114" t="n">
         <f aca="false">SUM(M44:M58)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="111" t="n">
+      <c r="N24" s="114" t="n">
         <f aca="false">SUM(N44:N58)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="111" t="n">
+      <c r="O24" s="114" t="n">
         <f aca="false">SUM(O44:O58)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="112" t="e">
+      <c r="P24" s="115" t="e">
         <f aca="false">SUM(D24:O24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q24" s="113" t="n">
+      <c r="Q24" s="116" t="n">
         <f aca="false">IFERROR(AVERAGEIF(D24:O24, "&gt;0", D24:O24), 0)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="114"/>
+      <c r="R24" s="117"/>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="118" t="e">
+      <c r="D25" s="121" t="e">
         <f aca="false">D23-D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="118" t="n">
+      <c r="E25" s="121" t="n">
         <f aca="false">E23-E24</f>
         <v>0</v>
       </c>
-      <c r="F25" s="118" t="n">
+      <c r="F25" s="121" t="n">
         <f aca="false">F23-F24</f>
         <v>0</v>
       </c>
-      <c r="G25" s="118" t="n">
+      <c r="G25" s="121" t="n">
         <f aca="false">G23-G24</f>
         <v>0</v>
       </c>
-      <c r="H25" s="118" t="n">
+      <c r="H25" s="121" t="n">
         <f aca="false">H23-H24</f>
         <v>0</v>
       </c>
-      <c r="I25" s="118" t="n">
+      <c r="I25" s="121" t="n">
         <f aca="false">I23-I24</f>
         <v>0</v>
       </c>
-      <c r="J25" s="118" t="n">
+      <c r="J25" s="121" t="n">
         <f aca="false">J23-J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="118" t="n">
+      <c r="K25" s="121" t="n">
         <f aca="false">K23-K24</f>
         <v>0</v>
       </c>
-      <c r="L25" s="118" t="n">
+      <c r="L25" s="121" t="n">
         <f aca="false">L23-L24</f>
         <v>0</v>
       </c>
-      <c r="M25" s="118" t="n">
+      <c r="M25" s="121" t="n">
         <f aca="false">M23-M24</f>
         <v>0</v>
       </c>
-      <c r="N25" s="118" t="n">
+      <c r="N25" s="121" t="n">
         <f aca="false">N23-N24</f>
         <v>0</v>
       </c>
-      <c r="O25" s="118" t="n">
+      <c r="O25" s="121" t="n">
         <f aca="false">O23-O24</f>
         <v>0</v>
       </c>
-      <c r="P25" s="119" t="e">
+      <c r="P25" s="122" t="e">
         <f aca="false">SUM(D25:O25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q25" s="119" t="n">
+      <c r="Q25" s="122" t="n">
         <f aca="false">IFERROR(AVERAGEIF(D25:O25, "&gt;0", D25:O25), 0)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="120"/>
+      <c r="R25" s="123"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="121" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="122" t="e">
+      <c r="D26" s="125" t="e">
         <f aca="false">(StartingBalance+D23)-D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="122" t="e">
+      <c r="E26" s="125" t="e">
         <f aca="false">(D26+E23)-E24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="122" t="e">
+      <c r="F26" s="125" t="e">
         <f aca="false">(E26+F23)-F24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G26" s="122" t="e">
+      <c r="G26" s="125" t="e">
         <f aca="false">(F26+G23)-G24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="122" t="e">
+      <c r="H26" s="125" t="e">
         <f aca="false">(G26+H23)-H24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I26" s="122" t="e">
+      <c r="I26" s="125" t="e">
         <f aca="false">(H26+I23)-I24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="122" t="e">
+      <c r="J26" s="125" t="e">
         <f aca="false">(I26+J23)-J24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="122" t="e">
+      <c r="K26" s="125" t="e">
         <f aca="false">(J26+K23)-K24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="122" t="e">
+      <c r="L26" s="125" t="e">
         <f aca="false">(K26+L23)-L24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="122" t="e">
+      <c r="M26" s="125" t="e">
         <f aca="false">(L26+M23)-M24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N26" s="122" t="e">
+      <c r="N26" s="125" t="e">
         <f aca="false">(M26+N23)-N24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O26" s="122" t="e">
+      <c r="O26" s="125" t="e">
         <f aca="false">(N26+O23)-O24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="123" t="e">
+      <c r="P26" s="109"/>
+      <c r="Q26" s="126" t="e">
         <f aca="false">IFERROR(AVERAGEIF(D26:O26, "&gt;0", D26:O26))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R26" s="107"/>
+      <c r="R26" s="110"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="107"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="110"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="126"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="94" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="126"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="129"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99" t="s">
+      <c r="A30" s="101"/>
+      <c r="B30" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="100" t="str">
+      <c r="C30" s="103" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("unique(Income!A:A)"),"")</f>
         <v/>
       </c>
-      <c r="D30" s="101" t="n">
+      <c r="D30" s="104" t="n">
         <f aca="false">Expenses!D2</f>
         <v>42370</v>
       </c>
-      <c r="E30" s="101" t="n">
+      <c r="E30" s="104" t="n">
         <f aca="false">Expenses!E2</f>
         <v>42401</v>
       </c>
-      <c r="F30" s="101" t="n">
+      <c r="F30" s="104" t="n">
         <f aca="false">Expenses!F2</f>
         <v>42430</v>
       </c>
-      <c r="G30" s="101" t="n">
+      <c r="G30" s="104" t="n">
         <f aca="false">Expenses!G2</f>
         <v>42461</v>
       </c>
-      <c r="H30" s="101" t="n">
+      <c r="H30" s="104" t="n">
         <f aca="false">Expenses!H2</f>
         <v>42491</v>
       </c>
-      <c r="I30" s="101" t="n">
+      <c r="I30" s="104" t="n">
         <f aca="false">Expenses!I2</f>
         <v>42522</v>
       </c>
-      <c r="J30" s="101" t="n">
+      <c r="J30" s="104" t="n">
         <f aca="false">Expenses!J2</f>
         <v>42552</v>
       </c>
-      <c r="K30" s="101" t="n">
+      <c r="K30" s="104" t="n">
         <f aca="false">Expenses!K2</f>
         <v>42583</v>
       </c>
-      <c r="L30" s="101" t="n">
+      <c r="L30" s="104" t="n">
         <f aca="false">Expenses!L2</f>
         <v>42614</v>
       </c>
-      <c r="M30" s="101" t="n">
+      <c r="M30" s="104" t="n">
         <f aca="false">Expenses!M2</f>
         <v>42644</v>
       </c>
-      <c r="N30" s="101" t="n">
+      <c r="N30" s="104" t="n">
         <f aca="false">Expenses!N2</f>
         <v>42675</v>
       </c>
-      <c r="O30" s="101" t="n">
+      <c r="O30" s="104" t="n">
         <f aca="false">Expenses!O2</f>
         <v>42705</v>
       </c>
-      <c r="P30" s="102" t="s">
+      <c r="P30" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="102" t="s">
+      <c r="Q30" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="103"/>
+      <c r="R30" s="106"/>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="72"/>
-      <c r="B31" s="131" t="e">
+      <c r="A31" s="75"/>
+      <c r="B31" s="134" t="e">
         <f aca="false" t="array" ref="B31:B40">IFERROR(MATCH(C31:C40,Income!A:A,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="132" t="str">
+      <c r="C31" s="135" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Wages")</f>
         <v>Wages</v>
       </c>
-      <c r="D31" s="133" t="e">
+      <c r="D31" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B31)), INDIRECT("Income!D"&amp;B31&amp;":Q"&amp;B31),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="134"/>
+      <c r="E31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="137"/>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="72"/>
-      <c r="B32" s="131" t="e">
+      <c r="A32" s="75"/>
+      <c r="B32" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="135" t="str">
+      <c r="C32" s="138" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Other")</f>
         <v>Other</v>
       </c>
-      <c r="D32" s="133" t="e">
+      <c r="D32" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B32)), INDIRECT("Income!D"&amp;B32&amp;":Q"&amp;B32),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="134"/>
+      <c r="E32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="137"/>
     </row>
     <row r="33" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73" t="e">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="133" t="e">
+      <c r="C33" s="138"/>
+      <c r="D33" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B33)), INDIRECT("Income!D"&amp;B33&amp;":Q"&amp;B33),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="107"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="110"/>
     </row>
     <row r="34" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73" t="e">
+      <c r="A34" s="75"/>
+      <c r="B34" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="133" t="e">
+      <c r="C34" s="138"/>
+      <c r="D34" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B34)), INDIRECT("Income!D"&amp;B34&amp;":Q"&amp;B34),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="107"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="110"/>
     </row>
     <row r="35" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73" t="e">
+      <c r="A35" s="75"/>
+      <c r="B35" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="133" t="e">
+      <c r="C35" s="138"/>
+      <c r="D35" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B35)), INDIRECT("Income!D"&amp;B35&amp;":Q"&amp;B35),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="107"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
     </row>
     <row r="36" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73" t="e">
+      <c r="A36" s="75"/>
+      <c r="B36" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="133" t="e">
+      <c r="C36" s="138"/>
+      <c r="D36" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B36)), INDIRECT("Income!D"&amp;B36&amp;":Q"&amp;B36),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="107"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="110"/>
     </row>
     <row r="37" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="72"/>
-      <c r="B37" s="73" t="e">
+      <c r="A37" s="75"/>
+      <c r="B37" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="133" t="e">
+      <c r="C37" s="138"/>
+      <c r="D37" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B37)), INDIRECT("Income!D"&amp;B37&amp;":Q"&amp;B37),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="107"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="110"/>
     </row>
     <row r="38" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73" t="e">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="133" t="e">
+      <c r="C38" s="138"/>
+      <c r="D38" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B38)), INDIRECT("Income!D"&amp;B38&amp;":Q"&amp;B38),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="107"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="110"/>
     </row>
     <row r="39" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73" t="e">
+      <c r="A39" s="75"/>
+      <c r="B39" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="133" t="e">
+      <c r="C39" s="138"/>
+      <c r="D39" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B39)), INDIRECT("Income!D"&amp;B39&amp;":Q"&amp;B39),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="107"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="110"/>
     </row>
     <row r="40" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73" t="e">
+      <c r="A40" s="75"/>
+      <c r="B40" s="76" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="133" t="e">
+      <c r="C40" s="138"/>
+      <c r="D40" s="136" t="e">
         <f aca="true">IF(NOT(ISBLANK(B40)), INDIRECT("Income!D"&amp;B40&amp;":Q"&amp;B40),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="126"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="136"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="129"/>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="126"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="129"/>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="94" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="139"/>
-      <c r="Q42" s="139"/>
-      <c r="R42" s="126"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="142"/>
+      <c r="R42" s="129"/>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="98"/>
-      <c r="B43" s="99" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="140" t="str">
+      <c r="C43" s="143" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("unique(Expenses!A:A)"),"")</f>
         <v/>
       </c>
-      <c r="D43" s="101" t="n">
+      <c r="D43" s="104" t="n">
         <f aca="false">Expenses!D2</f>
         <v>42370</v>
       </c>
-      <c r="E43" s="101" t="n">
+      <c r="E43" s="104" t="n">
         <f aca="false">Expenses!E2</f>
         <v>42401</v>
       </c>
-      <c r="F43" s="101" t="n">
+      <c r="F43" s="104" t="n">
         <f aca="false">Expenses!F2</f>
         <v>42430</v>
       </c>
-      <c r="G43" s="101" t="n">
+      <c r="G43" s="104" t="n">
         <f aca="false">Expenses!G2</f>
         <v>42461</v>
       </c>
-      <c r="H43" s="101" t="n">
+      <c r="H43" s="104" t="n">
         <f aca="false">Expenses!H2</f>
         <v>42491</v>
       </c>
-      <c r="I43" s="101" t="n">
+      <c r="I43" s="104" t="n">
         <f aca="false">Expenses!I2</f>
         <v>42522</v>
       </c>
-      <c r="J43" s="101" t="n">
+      <c r="J43" s="104" t="n">
         <f aca="false">Expenses!J2</f>
         <v>42552</v>
       </c>
-      <c r="K43" s="101" t="n">
+      <c r="K43" s="104" t="n">
         <f aca="false">Expenses!K2</f>
         <v>42583</v>
       </c>
-      <c r="L43" s="101" t="n">
+      <c r="L43" s="104" t="n">
         <f aca="false">Expenses!L2</f>
         <v>42614</v>
       </c>
-      <c r="M43" s="101" t="n">
+      <c r="M43" s="104" t="n">
         <f aca="false">Expenses!M2</f>
         <v>42644</v>
       </c>
-      <c r="N43" s="101" t="n">
+      <c r="N43" s="104" t="n">
         <f aca="false">Expenses!N2</f>
         <v>42675</v>
       </c>
-      <c r="O43" s="101" t="n">
+      <c r="O43" s="104" t="n">
         <f aca="false">Expenses!O2</f>
         <v>42705</v>
       </c>
-      <c r="P43" s="102" t="s">
+      <c r="P43" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="102" t="s">
+      <c r="Q43" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="R43" s="103"/>
+      <c r="R43" s="106"/>
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72"/>
-      <c r="B44" s="131" t="e">
+      <c r="A44" s="75"/>
+      <c r="B44" s="134" t="e">
         <f aca="false" t="array" ref="B44:B58">IFERROR(MATCH(C44:C58,Expenses!A:A,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C44" s="141" t="str">
+      <c r="C44" s="144" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Children")</f>
         <v>Children</v>
       </c>
-      <c r="D44" s="142" t="e">
+      <c r="D44" s="145" t="e">
         <f aca="true">IF(NOT(ISBLANK(B44)), INDIRECT("Expenses!D"&amp;B44&amp;":Q"&amp;B44),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="144"/>
+      <c r="E44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="147"/>
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72"/>
-      <c r="B45" s="131" t="e">
+      <c r="A45" s="75"/>
+      <c r="B45" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C45" s="145" t="str">
+      <c r="C45" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Debt")</f>
         <v>Debt</v>
       </c>
-      <c r="D45" s="146" t="e">
+      <c r="D45" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B45)), INDIRECT("Expenses!D"&amp;B45&amp;":Q"&amp;B45),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="144"/>
+      <c r="E45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="147"/>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="72"/>
-      <c r="B46" s="131" t="e">
+      <c r="A46" s="75"/>
+      <c r="B46" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C46" s="145" t="str">
+      <c r="C46" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Education")</f>
         <v>Education</v>
       </c>
-      <c r="D46" s="146" t="e">
+      <c r="D46" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B46)), INDIRECT("Expenses!D"&amp;B46&amp;":Q"&amp;B46),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="144"/>
+      <c r="E46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="147"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="72"/>
-      <c r="B47" s="131" t="e">
+      <c r="A47" s="75"/>
+      <c r="B47" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C47" s="145" t="str">
+      <c r="C47" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Entertainment")</f>
         <v>Entertainment</v>
       </c>
-      <c r="D47" s="146" t="e">
+      <c r="D47" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B47)), INDIRECT("Expenses!D"&amp;B47&amp;":Q"&amp;B47),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="144"/>
+      <c r="E47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="147"/>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="72"/>
-      <c r="B48" s="131" t="e">
+      <c r="A48" s="75"/>
+      <c r="B48" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C48" s="145" t="str">
+      <c r="C48" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Everyday")</f>
         <v>Everyday</v>
       </c>
-      <c r="D48" s="146" t="e">
+      <c r="D48" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B48)), INDIRECT("Expenses!D"&amp;B48&amp;":Q"&amp;B48),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="144"/>
+      <c r="E48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="147"/>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="72"/>
-      <c r="B49" s="131" t="e">
+      <c r="A49" s="75"/>
+      <c r="B49" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C49" s="145" t="str">
+      <c r="C49" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Gifts")</f>
         <v>Gifts</v>
       </c>
-      <c r="D49" s="146" t="e">
+      <c r="D49" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B49)), INDIRECT("Expenses!D"&amp;B49&amp;":Q"&amp;B49),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="144"/>
+      <c r="E49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="147"/>
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="72"/>
-      <c r="B50" s="131" t="e">
+      <c r="A50" s="75"/>
+      <c r="B50" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C50" s="145" t="str">
+      <c r="C50" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Health/medical")</f>
         <v>Health/medical</v>
       </c>
-      <c r="D50" s="146" t="e">
+      <c r="D50" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B50)), INDIRECT("Expenses!D"&amp;B50&amp;":Q"&amp;B50),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="144"/>
+      <c r="E50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="147"/>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="72"/>
-      <c r="B51" s="131" t="e">
+      <c r="A51" s="75"/>
+      <c r="B51" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C51" s="145" t="str">
+      <c r="C51" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Home")</f>
         <v>Home</v>
       </c>
-      <c r="D51" s="146" t="e">
+      <c r="D51" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B51)), INDIRECT("Expenses!D"&amp;B51&amp;":Q"&amp;B51),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="144"/>
+      <c r="E51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="147"/>
     </row>
     <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="72"/>
-      <c r="B52" s="131" t="e">
+      <c r="A52" s="75"/>
+      <c r="B52" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C52" s="145" t="str">
+      <c r="C52" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Insurance")</f>
         <v>Insurance</v>
       </c>
-      <c r="D52" s="146" t="e">
+      <c r="D52" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B52)), INDIRECT("Expenses!D"&amp;B52&amp;":Q"&amp;B52),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="144"/>
+      <c r="E52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="147"/>
     </row>
     <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="72"/>
-      <c r="B53" s="131" t="e">
+      <c r="A53" s="75"/>
+      <c r="B53" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C53" s="145" t="str">
+      <c r="C53" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Pets")</f>
         <v>Pets</v>
       </c>
-      <c r="D53" s="146" t="e">
+      <c r="D53" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B53)), INDIRECT("Expenses!D"&amp;B53&amp;":Q"&amp;B53),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="144"/>
+      <c r="E53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="147"/>
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="72"/>
-      <c r="B54" s="131" t="e">
+      <c r="A54" s="75"/>
+      <c r="B54" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C54" s="145" t="str">
+      <c r="C54" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Technology")</f>
         <v>Technology</v>
       </c>
-      <c r="D54" s="146" t="e">
+      <c r="D54" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B54)), INDIRECT("Expenses!D"&amp;B54&amp;":Q"&amp;B54),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="144"/>
+      <c r="E54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="147"/>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="72"/>
-      <c r="B55" s="131" t="e">
+      <c r="A55" s="75"/>
+      <c r="B55" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C55" s="145" t="str">
+      <c r="C55" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Transportation")</f>
         <v>Transportation</v>
       </c>
-      <c r="D55" s="146" t="e">
+      <c r="D55" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B55)), INDIRECT("Expenses!D"&amp;B55&amp;":Q"&amp;B55),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="144"/>
+      <c r="E55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="147"/>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="72"/>
-      <c r="B56" s="131" t="e">
+      <c r="A56" s="75"/>
+      <c r="B56" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C56" s="145" t="str">
+      <c r="C56" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Travel")</f>
         <v>Travel</v>
       </c>
-      <c r="D56" s="146" t="e">
+      <c r="D56" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B56)), INDIRECT("Expenses!D"&amp;B56&amp;":Q"&amp;B56),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="144"/>
+      <c r="E56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="147"/>
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="72"/>
-      <c r="B57" s="131" t="e">
+      <c r="A57" s="75"/>
+      <c r="B57" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C57" s="148" t="str">
+      <c r="C57" s="151" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Utilities")</f>
         <v>Utilities</v>
       </c>
-      <c r="D57" s="146" t="e">
+      <c r="D57" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B57)), INDIRECT("Expenses!D"&amp;B57&amp;":Q"&amp;B57),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="144"/>
+      <c r="E57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="147"/>
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="72"/>
-      <c r="B58" s="131" t="e">
+      <c r="A58" s="75"/>
+      <c r="B58" s="134" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C58" s="145" t="str">
+      <c r="C58" s="148" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("""COMPUTED_VALUE"""),"Other")</f>
         <v>Other</v>
       </c>
-      <c r="D58" s="146" t="e">
+      <c r="D58" s="149" t="e">
         <f aca="true">IF(NOT(ISBLANK(B58)), INDIRECT("Expenses!D"&amp;B58&amp;":Q"&amp;B58),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="144"/>
+      <c r="E58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="147"/>
     </row>
     <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="72"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150" t="str">
+      <c r="A59" s="75"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="153" t="str">
         <f aca="true">IF(NOT(ISBLANK(B59)), INDIRECT("Expenses!D"&amp;B59&amp;":Q"&amp;B59),"")</f>
         <v/>
       </c>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="150"/>
-      <c r="O59" s="150"/>
-      <c r="P59" s="123"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="151"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="153"/>
+      <c r="O59" s="153"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="154"/>
     </row>
     <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="133" t="str">
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B60)), INDIRECT("Expenses!D"&amp;B60&amp;":Q"&amp;B60),"")</f>
         <v/>
       </c>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="153"/>
-      <c r="Q60" s="153"/>
-      <c r="R60" s="154"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="157"/>
     </row>
     <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="72"/>
-      <c r="B61" s="73"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="133" t="str">
+      <c r="D61" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B61)), INDIRECT("Expenses!D"&amp;B61&amp;":Q"&amp;B61),"")</f>
         <v/>
       </c>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="153"/>
-      <c r="R61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="158"/>
     </row>
     <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="133" t="str">
+      <c r="D62" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B62)), INDIRECT("Expenses!D"&amp;B62&amp;":Q"&amp;B62),"")</f>
         <v/>
       </c>
-      <c r="E62" s="156"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="159"/>
-      <c r="R62" s="155"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="160"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="162"/>
+      <c r="R62" s="158"/>
     </row>
     <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="72"/>
-      <c r="B63" s="73"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="76"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="133" t="str">
+      <c r="D63" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B63)), INDIRECT("Expenses!D"&amp;B63&amp;":Q"&amp;B63),"")</f>
         <v/>
       </c>
-      <c r="E63" s="156"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-      <c r="P63" s="159"/>
-      <c r="Q63" s="159"/>
-      <c r="R63" s="155"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="160"/>
+      <c r="M63" s="160"/>
+      <c r="N63" s="160"/>
+      <c r="O63" s="160"/>
+      <c r="P63" s="162"/>
+      <c r="Q63" s="162"/>
+      <c r="R63" s="158"/>
     </row>
     <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="72"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="133" t="str">
+      <c r="D64" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B64)), INDIRECT("Expenses!D"&amp;B64&amp;":Q"&amp;B64),"")</f>
         <v/>
       </c>
-      <c r="E64" s="156"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="159"/>
-      <c r="R64" s="155"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="161"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="160"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="160"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="162"/>
+      <c r="R64" s="158"/>
     </row>
     <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="72"/>
-      <c r="B65" s="73"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="133" t="str">
+      <c r="D65" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B65)), INDIRECT("Expenses!D"&amp;B65&amp;":Q"&amp;B65),"")</f>
         <v/>
       </c>
-      <c r="E65" s="156"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="155"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="160"/>
+      <c r="O65" s="160"/>
+      <c r="P65" s="162"/>
+      <c r="Q65" s="162"/>
+      <c r="R65" s="158"/>
     </row>
     <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="72"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="133" t="str">
+      <c r="A66" s="75"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B66)), INDIRECT("Expenses!D"&amp;B66&amp;":Q"&amp;B66),"")</f>
         <v/>
       </c>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="155"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="160"/>
+      <c r="N66" s="160"/>
+      <c r="O66" s="160"/>
+      <c r="P66" s="162"/>
+      <c r="Q66" s="162"/>
+      <c r="R66" s="158"/>
     </row>
     <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="72"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="133" t="str">
+      <c r="A67" s="75"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B67)), INDIRECT("Expenses!D"&amp;B67&amp;":Q"&amp;B67),"")</f>
         <v/>
       </c>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="158"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="155"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="161"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="160"/>
+      <c r="M67" s="160"/>
+      <c r="N67" s="160"/>
+      <c r="O67" s="160"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="162"/>
+      <c r="R67" s="158"/>
     </row>
     <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="72"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="133" t="str">
+      <c r="A68" s="75"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B68)), INDIRECT("Expenses!D"&amp;B68&amp;":Q"&amp;B68),"")</f>
         <v/>
       </c>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
-      <c r="N68" s="157"/>
-      <c r="O68" s="157"/>
-      <c r="P68" s="159"/>
-      <c r="Q68" s="159"/>
-      <c r="R68" s="155"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="161"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
+      <c r="K68" s="160"/>
+      <c r="L68" s="160"/>
+      <c r="M68" s="160"/>
+      <c r="N68" s="160"/>
+      <c r="O68" s="160"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="162"/>
+      <c r="R68" s="158"/>
     </row>
     <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="133" t="str">
+      <c r="A69" s="75"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B69)), INDIRECT("Expenses!D"&amp;B69&amp;":Q"&amp;B69),"")</f>
         <v/>
       </c>
-      <c r="E69" s="157"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="158"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="159"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="155"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="161"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
+      <c r="L69" s="160"/>
+      <c r="M69" s="160"/>
+      <c r="N69" s="160"/>
+      <c r="O69" s="160"/>
+      <c r="P69" s="162"/>
+      <c r="Q69" s="162"/>
+      <c r="R69" s="158"/>
     </row>
     <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="72"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="133" t="str">
+      <c r="A70" s="75"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B70)), INDIRECT("Expenses!D"&amp;B70&amp;":Q"&amp;B70),"")</f>
         <v/>
       </c>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="159"/>
-      <c r="Q70" s="159"/>
-      <c r="R70" s="155"/>
+      <c r="E70" s="160"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
+      <c r="L70" s="160"/>
+      <c r="M70" s="160"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="160"/>
+      <c r="P70" s="162"/>
+      <c r="Q70" s="162"/>
+      <c r="R70" s="158"/>
     </row>
     <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="72"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="133" t="str">
+      <c r="A71" s="75"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B71)), INDIRECT("Expenses!D"&amp;B71&amp;":Q"&amp;B71),"")</f>
         <v/>
       </c>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="158"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="159"/>
-      <c r="Q71" s="159"/>
-      <c r="R71" s="155"/>
+      <c r="E71" s="160"/>
+      <c r="F71" s="160"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="160"/>
+      <c r="M71" s="160"/>
+      <c r="N71" s="160"/>
+      <c r="O71" s="160"/>
+      <c r="P71" s="162"/>
+      <c r="Q71" s="162"/>
+      <c r="R71" s="158"/>
     </row>
     <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="72"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="133" t="str">
+      <c r="A72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B72)), INDIRECT("Expenses!D"&amp;B72&amp;":Q"&amp;B72),"")</f>
         <v/>
       </c>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="159"/>
-      <c r="Q72" s="159"/>
-      <c r="R72" s="155"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="161"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="160"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="162"/>
+      <c r="Q72" s="162"/>
+      <c r="R72" s="158"/>
     </row>
     <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="72"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="133" t="str">
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B73)), INDIRECT("Expenses!D"&amp;B73&amp;":Q"&amp;B73),"")</f>
         <v/>
       </c>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="159"/>
-      <c r="Q73" s="159"/>
-      <c r="R73" s="155"/>
+      <c r="E73" s="160"/>
+      <c r="F73" s="160"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="160"/>
+      <c r="J73" s="160"/>
+      <c r="K73" s="160"/>
+      <c r="L73" s="160"/>
+      <c r="M73" s="160"/>
+      <c r="N73" s="160"/>
+      <c r="O73" s="160"/>
+      <c r="P73" s="162"/>
+      <c r="Q73" s="162"/>
+      <c r="R73" s="158"/>
     </row>
     <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="72"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="133" t="str">
+      <c r="A74" s="75"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B74)), INDIRECT("Expenses!D"&amp;B74&amp;":Q"&amp;B74),"")</f>
         <v/>
       </c>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="157"/>
-      <c r="P74" s="159"/>
-      <c r="Q74" s="159"/>
-      <c r="R74" s="155"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="161"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="160"/>
+      <c r="K74" s="160"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="160"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="160"/>
+      <c r="P74" s="162"/>
+      <c r="Q74" s="162"/>
+      <c r="R74" s="158"/>
     </row>
     <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="72"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="133" t="str">
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B75)), INDIRECT("Expenses!D"&amp;B75&amp;":Q"&amp;B75),"")</f>
         <v/>
       </c>
-      <c r="E75" s="157"/>
-      <c r="F75" s="157"/>
-      <c r="G75" s="157"/>
-      <c r="H75" s="158"/>
-      <c r="I75" s="157"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="157"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="157"/>
-      <c r="N75" s="157"/>
-      <c r="O75" s="157"/>
-      <c r="P75" s="159"/>
-      <c r="Q75" s="159"/>
-      <c r="R75" s="155"/>
+      <c r="E75" s="160"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="160"/>
+      <c r="K75" s="160"/>
+      <c r="L75" s="160"/>
+      <c r="M75" s="160"/>
+      <c r="N75" s="160"/>
+      <c r="O75" s="160"/>
+      <c r="P75" s="162"/>
+      <c r="Q75" s="162"/>
+      <c r="R75" s="158"/>
     </row>
     <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="72"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="133" t="str">
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B76)), INDIRECT("Expenses!D"&amp;B76&amp;":Q"&amp;B76),"")</f>
         <v/>
       </c>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="159"/>
-      <c r="Q76" s="159"/>
-      <c r="R76" s="155"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="160"/>
+      <c r="N76" s="160"/>
+      <c r="O76" s="160"/>
+      <c r="P76" s="162"/>
+      <c r="Q76" s="162"/>
+      <c r="R76" s="158"/>
     </row>
     <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="72"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="133" t="str">
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B77)), INDIRECT("Expenses!D"&amp;B77&amp;":Q"&amp;B77),"")</f>
         <v/>
       </c>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="158"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
-      <c r="P77" s="159"/>
-      <c r="Q77" s="159"/>
-      <c r="R77" s="155"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="160"/>
+      <c r="M77" s="160"/>
+      <c r="N77" s="160"/>
+      <c r="O77" s="160"/>
+      <c r="P77" s="162"/>
+      <c r="Q77" s="162"/>
+      <c r="R77" s="158"/>
     </row>
     <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="72"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="133" t="str">
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B78)), INDIRECT("Expenses!D"&amp;B78&amp;":Q"&amp;B78),"")</f>
         <v/>
       </c>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="158"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="157"/>
-      <c r="N78" s="157"/>
-      <c r="O78" s="157"/>
-      <c r="P78" s="159"/>
-      <c r="Q78" s="159"/>
-      <c r="R78" s="155"/>
+      <c r="E78" s="160"/>
+      <c r="F78" s="160"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="160"/>
+      <c r="K78" s="160"/>
+      <c r="L78" s="160"/>
+      <c r="M78" s="160"/>
+      <c r="N78" s="160"/>
+      <c r="O78" s="160"/>
+      <c r="P78" s="162"/>
+      <c r="Q78" s="162"/>
+      <c r="R78" s="158"/>
     </row>
     <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="72"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="133" t="str">
+      <c r="A79" s="75"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B79)), INDIRECT("Expenses!D"&amp;B79&amp;":Q"&amp;B79),"")</f>
         <v/>
       </c>
-      <c r="E79" s="157"/>
-      <c r="F79" s="157"/>
-      <c r="G79" s="157"/>
-      <c r="H79" s="158"/>
-      <c r="I79" s="157"/>
-      <c r="J79" s="157"/>
-      <c r="K79" s="157"/>
-      <c r="L79" s="157"/>
-      <c r="M79" s="157"/>
-      <c r="N79" s="157"/>
-      <c r="O79" s="157"/>
-      <c r="P79" s="159"/>
-      <c r="Q79" s="159"/>
-      <c r="R79" s="155"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="160"/>
+      <c r="M79" s="160"/>
+      <c r="N79" s="160"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="162"/>
+      <c r="Q79" s="162"/>
+      <c r="R79" s="158"/>
     </row>
     <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="72"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="133" t="str">
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="136" t="str">
         <f aca="true">IF(NOT(ISBLANK(B80)), INDIRECT("Expenses!D"&amp;B80&amp;":Q"&amp;B80),"")</f>
         <v/>
       </c>
-      <c r="E80" s="157"/>
-      <c r="F80" s="157"/>
-      <c r="G80" s="157"/>
-      <c r="H80" s="158"/>
-      <c r="I80" s="157"/>
-      <c r="J80" s="157"/>
-      <c r="K80" s="157"/>
-      <c r="L80" s="157"/>
-      <c r="M80" s="157"/>
-      <c r="N80" s="157"/>
-      <c r="O80" s="157"/>
-      <c r="P80" s="159"/>
-      <c r="Q80" s="159"/>
-      <c r="R80" s="155"/>
+      <c r="E80" s="160"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="160"/>
+      <c r="H80" s="161"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="160"/>
+      <c r="K80" s="160"/>
+      <c r="L80" s="160"/>
+      <c r="M80" s="160"/>
+      <c r="N80" s="160"/>
+      <c r="O80" s="160"/>
+      <c r="P80" s="162"/>
+      <c r="Q80" s="162"/>
+      <c r="R80" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
